--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Igf1r</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H2">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I2">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J2">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N2">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q2">
-        <v>192.16618340434</v>
+        <v>144.035712701149</v>
       </c>
       <c r="R2">
-        <v>1729.49565063906</v>
+        <v>1296.321414310341</v>
       </c>
       <c r="S2">
-        <v>0.05957525750967545</v>
+        <v>0.03216413712176965</v>
       </c>
       <c r="T2">
-        <v>0.05957525750967545</v>
+        <v>0.03216413712176965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H3">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I3">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J3">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q3">
-        <v>192.6775936039713</v>
+        <v>151.926085388149</v>
       </c>
       <c r="R3">
-        <v>1734.098342435742</v>
+        <v>1367.334768493341</v>
       </c>
       <c r="S3">
-        <v>0.05973380462653213</v>
+        <v>0.03392611006783408</v>
       </c>
       <c r="T3">
-        <v>0.05973380462653213</v>
+        <v>0.03392611006783407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H4">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I4">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J4">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N4">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O4">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P4">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q4">
-        <v>54.85662538210467</v>
+        <v>38.997108045124</v>
       </c>
       <c r="R4">
-        <v>493.709628438942</v>
+        <v>350.973972406116</v>
       </c>
       <c r="S4">
-        <v>0.01700662169250781</v>
+        <v>0.008708314812995881</v>
       </c>
       <c r="T4">
-        <v>0.01700662169250781</v>
+        <v>0.008708314812995879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H5">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I5">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J5">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N5">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O5">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P5">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q5">
-        <v>94.566740379588</v>
+        <v>98.553080101834</v>
       </c>
       <c r="R5">
-        <v>851.100663416292</v>
+        <v>886.977720916506</v>
       </c>
       <c r="S5">
-        <v>0.02931753032795749</v>
+        <v>0.02200756133824337</v>
       </c>
       <c r="T5">
-        <v>0.02931753032795749</v>
+        <v>0.02200756133824337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H6">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I6">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J6">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N6">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O6">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P6">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q6">
-        <v>43.327564839262</v>
+        <v>34.691728830782</v>
       </c>
       <c r="R6">
-        <v>389.948083553358</v>
+        <v>312.225559477038</v>
       </c>
       <c r="S6">
-        <v>0.01343238850268958</v>
+        <v>0.007746894865023433</v>
       </c>
       <c r="T6">
-        <v>0.01343238850268957</v>
+        <v>0.007746894865023433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>121.823837</v>
       </c>
       <c r="I7">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J7">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N7">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q7">
-        <v>504.5403242862635</v>
+        <v>479.6097122353621</v>
       </c>
       <c r="R7">
-        <v>4540.862918576371</v>
+        <v>4316.487410118259</v>
       </c>
       <c r="S7">
-        <v>0.156417321772601</v>
+        <v>0.1071000535907204</v>
       </c>
       <c r="T7">
-        <v>0.156417321772601</v>
+        <v>0.1071000535907204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>121.823837</v>
       </c>
       <c r="I8">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J8">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q8">
-        <v>505.8830530816955</v>
+        <v>505.8830530816954</v>
       </c>
       <c r="R8">
-        <v>4552.94747773526</v>
+        <v>4552.947477735259</v>
       </c>
       <c r="S8">
-        <v>0.1568335938363761</v>
+        <v>0.1129670661654547</v>
       </c>
       <c r="T8">
-        <v>0.1568335938363762</v>
+        <v>0.1129670661654547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>121.823837</v>
       </c>
       <c r="I9">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J9">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N9">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O9">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P9">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q9">
-        <v>144.0283564424066</v>
+        <v>129.8524610097205</v>
       </c>
       <c r="R9">
-        <v>1296.255207981659</v>
+        <v>1168.672149087484</v>
       </c>
       <c r="S9">
-        <v>0.04465159411371183</v>
+        <v>0.02899692224373308</v>
       </c>
       <c r="T9">
-        <v>0.04465159411371183</v>
+        <v>0.02899692224373308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>121.823837</v>
       </c>
       <c r="I10">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J10">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N10">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O10">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P10">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q10">
-        <v>248.288918542026</v>
+        <v>328.1617697523438</v>
       </c>
       <c r="R10">
-        <v>2234.600266878234</v>
+        <v>2953.455927771094</v>
       </c>
       <c r="S10">
-        <v>0.07697439787215946</v>
+        <v>0.07328071602864908</v>
       </c>
       <c r="T10">
-        <v>0.07697439787215946</v>
+        <v>0.07328071602864908</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>121.823837</v>
       </c>
       <c r="I11">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J11">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N11">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O11">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P11">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q11">
-        <v>113.7583274396323</v>
+        <v>115.5164213753069</v>
       </c>
       <c r="R11">
-        <v>1023.824946956691</v>
+        <v>1039.647792377762</v>
       </c>
       <c r="S11">
-        <v>0.03526729589475219</v>
+        <v>0.0257955887970682</v>
       </c>
       <c r="T11">
-        <v>0.03526729589475218</v>
+        <v>0.0257955887970682</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H12">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I12">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J12">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N12">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O12">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P12">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q12">
-        <v>375.9382183411133</v>
+        <v>3.472757851012667</v>
       </c>
       <c r="R12">
-        <v>3383.44396507002</v>
+        <v>31.254820659114</v>
       </c>
       <c r="S12">
-        <v>0.1165481655962086</v>
+        <v>0.0007754900337975866</v>
       </c>
       <c r="T12">
-        <v>0.1165481655962086</v>
+        <v>0.0007754900337975866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H13">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I13">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J13">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>37.373207</v>
       </c>
       <c r="O13">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P13">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q13">
-        <v>376.9386994657571</v>
+        <v>3.662997849012667</v>
       </c>
       <c r="R13">
-        <v>3392.448295191814</v>
+        <v>32.96698064111401</v>
       </c>
       <c r="S13">
-        <v>0.1168583342199399</v>
+        <v>0.0008179718965729173</v>
       </c>
       <c r="T13">
-        <v>0.1168583342199399</v>
+        <v>0.0008179718965729173</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H14">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I14">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J14">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N14">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O14">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P14">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q14">
-        <v>107.3170192851349</v>
+        <v>0.9402356581626669</v>
       </c>
       <c r="R14">
-        <v>965.8531735662139</v>
+        <v>8.462120923464001</v>
       </c>
       <c r="S14">
-        <v>0.03327036498211643</v>
+        <v>0.0002099609053115068</v>
       </c>
       <c r="T14">
-        <v>0.03327036498211643</v>
+        <v>0.0002099609053115068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H15">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I15">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J15">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N15">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O15">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P15">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q15">
-        <v>185.002643351796</v>
+        <v>2.376153637502667</v>
       </c>
       <c r="R15">
-        <v>1665.023790166164</v>
+        <v>21.385382737524</v>
       </c>
       <c r="S15">
-        <v>0.05735442064987682</v>
+        <v>0.0005306109851908819</v>
       </c>
       <c r="T15">
-        <v>0.05735442064987681</v>
+        <v>0.0005306109851908819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H16">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I16">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J16">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N16">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O16">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P16">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q16">
-        <v>84.76250733698733</v>
+        <v>0.8364312669613334</v>
       </c>
       <c r="R16">
-        <v>762.8625660328859</v>
+        <v>7.527881402652001</v>
       </c>
       <c r="S16">
-        <v>0.0262780272382343</v>
+        <v>0.0001867806911144282</v>
       </c>
       <c r="T16">
-        <v>0.0262780272382343</v>
+        <v>0.0001867806911144283</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H17">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I17">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J17">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N17">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O17">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P17">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q17">
-        <v>0.5160628100066667</v>
+        <v>748.7567761944006</v>
       </c>
       <c r="R17">
-        <v>4.64456529006</v>
+        <v>6738.810985749605</v>
       </c>
       <c r="S17">
-        <v>0.0001599895166394793</v>
+        <v>0.1672023914675903</v>
       </c>
       <c r="T17">
-        <v>0.0001599895166394793</v>
+        <v>0.1672023914675903</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H18">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I18">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J18">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>37.373207</v>
       </c>
       <c r="O18">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P18">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q18">
-        <v>0.5174362034935556</v>
+        <v>789.7741732364005</v>
       </c>
       <c r="R18">
-        <v>4.656925831442</v>
+        <v>7107.967559127605</v>
       </c>
       <c r="S18">
-        <v>0.0001604152953545166</v>
+        <v>0.176361850313566</v>
       </c>
       <c r="T18">
-        <v>0.0001604152953545165</v>
+        <v>0.176361850313566</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H19">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I19">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J19">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N19">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O19">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P19">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q19">
-        <v>0.1473176171824445</v>
+        <v>202.7229799692507</v>
       </c>
       <c r="R19">
-        <v>1.325858554642</v>
+        <v>1824.506819723256</v>
       </c>
       <c r="S19">
-        <v>4.567132897097286E-05</v>
+        <v>0.04526939606286077</v>
       </c>
       <c r="T19">
-        <v>4.567132897097285E-05</v>
+        <v>0.04526939606286076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H20">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I20">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J20">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N20">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O20">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P20">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q20">
-        <v>0.253959239388</v>
+        <v>512.3193766131106</v>
       </c>
       <c r="R20">
-        <v>2.285633154492</v>
+        <v>4610.874389517996</v>
       </c>
       <c r="S20">
-        <v>7.873230771132501E-05</v>
+        <v>0.1144043402188281</v>
       </c>
       <c r="T20">
-        <v>7.873230771132499E-05</v>
+        <v>0.1144043402188281</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>63.396286</v>
+      </c>
+      <c r="H21">
+        <v>190.188858</v>
+      </c>
+      <c r="I21">
+        <v>0.5435095184737091</v>
+      </c>
+      <c r="J21">
+        <v>0.5435095184737091</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.844675333333333</v>
+      </c>
+      <c r="N21">
+        <v>8.534026000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.07409537283533685</v>
+      </c>
+      <c r="P21">
+        <v>0.07409537283533686</v>
+      </c>
+      <c r="Q21">
+        <v>180.3418510091453</v>
+      </c>
+      <c r="R21">
+        <v>1623.076659082308</v>
+      </c>
+      <c r="S21">
+        <v>0.04027154041086388</v>
+      </c>
+      <c r="T21">
+        <v>0.04027154041086389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.148871</v>
+      </c>
+      <c r="H22">
+        <v>0.446613</v>
+      </c>
+      <c r="I22">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J22">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.81073566666667</v>
+      </c>
+      <c r="N22">
+        <v>35.432207</v>
+      </c>
+      <c r="O22">
+        <v>0.3076347070004043</v>
+      </c>
+      <c r="P22">
+        <v>0.3076347070004043</v>
+      </c>
+      <c r="Q22">
+        <v>1.758276029432333</v>
+      </c>
+      <c r="R22">
+        <v>15.824484264891</v>
+      </c>
+      <c r="S22">
+        <v>0.0003926347865263218</v>
+      </c>
+      <c r="T22">
+        <v>0.0003926347865263218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.148871</v>
+      </c>
+      <c r="H23">
+        <v>0.446613</v>
+      </c>
+      <c r="I23">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J23">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.45773566666667</v>
+      </c>
+      <c r="N23">
+        <v>37.373207</v>
+      </c>
+      <c r="O23">
+        <v>0.3244871420261927</v>
+      </c>
+      <c r="P23">
+        <v>0.3244871420261927</v>
+      </c>
+      <c r="Q23">
+        <v>1.854595566432333</v>
+      </c>
+      <c r="R23">
+        <v>16.691360097891</v>
+      </c>
+      <c r="S23">
+        <v>0.0004141435827649413</v>
+      </c>
+      <c r="T23">
+        <v>0.0004141435827649413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.148871</v>
+      </c>
+      <c r="H24">
+        <v>0.446613</v>
+      </c>
+      <c r="I24">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J24">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.197710666666667</v>
+      </c>
+      <c r="N24">
+        <v>9.593132000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.08329089836363292</v>
+      </c>
+      <c r="P24">
+        <v>0.0832908983636329</v>
+      </c>
+      <c r="Q24">
+        <v>0.4760463846573334</v>
+      </c>
+      <c r="R24">
+        <v>4.284417461916</v>
+      </c>
+      <c r="S24">
+        <v>0.000106304338731675</v>
+      </c>
+      <c r="T24">
+        <v>0.000106304338731675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.04153533333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.124606</v>
-      </c>
-      <c r="I21">
-        <v>0.0004808811646609453</v>
-      </c>
-      <c r="J21">
-        <v>0.0004808811646609453</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.801381</v>
-      </c>
-      <c r="N21">
-        <v>8.404142999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.07501378435166071</v>
-      </c>
-      <c r="P21">
-        <v>0.07501378435166069</v>
-      </c>
-      <c r="Q21">
-        <v>0.1163562936286667</v>
-      </c>
-      <c r="R21">
-        <v>1.047206642658</v>
-      </c>
-      <c r="S21">
-        <v>3.60727159846516E-05</v>
-      </c>
-      <c r="T21">
-        <v>3.607271598465159E-05</v>
+      <c r="G25">
+        <v>0.148871</v>
+      </c>
+      <c r="H25">
+        <v>0.446613</v>
+      </c>
+      <c r="I25">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J25">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.081220666666667</v>
+      </c>
+      <c r="N25">
+        <v>24.243662</v>
+      </c>
+      <c r="O25">
+        <v>0.2104918797744333</v>
+      </c>
+      <c r="P25">
+        <v>0.2104918797744333</v>
+      </c>
+      <c r="Q25">
+        <v>1.203059401867333</v>
+      </c>
+      <c r="R25">
+        <v>10.827534616806</v>
+      </c>
+      <c r="S25">
+        <v>0.0002686512035218777</v>
+      </c>
+      <c r="T25">
+        <v>0.0002686512035218777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.148871</v>
+      </c>
+      <c r="H26">
+        <v>0.446613</v>
+      </c>
+      <c r="I26">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J26">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.844675333333333</v>
+      </c>
+      <c r="N26">
+        <v>8.534026000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.07409537283533685</v>
+      </c>
+      <c r="P26">
+        <v>0.07409537283533686</v>
+      </c>
+      <c r="Q26">
+        <v>0.4234896615486667</v>
+      </c>
+      <c r="R26">
+        <v>3.811406953938</v>
+      </c>
+      <c r="S26">
+        <v>9.456807126691485E-05</v>
+      </c>
+      <c r="T26">
+        <v>9.456807126691488E-05</v>
       </c>
     </row>
   </sheetData>
